--- a/pred_ohlcv/54_21/2020-01-23 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1621.257400000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1616.517800000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1717.873300000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1616.628400000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1665.686100000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1613.441700000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1656.464999999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1591.051299999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1681.106299999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2270.617627534512</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2324.804727534512</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2346.157627534512</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2480.166027534513</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>710.654027534513</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3667.309535364047</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3885.431878553619</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3848.053778553619</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3638.345778553619</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3643.284478553619</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3449.21057855362</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3428.53677855362</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3624.53677855362</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3604.24477855362</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>624.9780692821072</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5876.865725592786</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>13090.26342559279</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>14792.03592559279</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>19134.78112559279</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>20602.83084517848</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>23779.17344517848</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>36690.79373170425</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>37067.40353170424</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>36173.48423170424</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>36339.21514708886</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>36139.19244708886</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>36082.70562383304</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>37287.52290057723</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>37287.52290057723</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>37894.33130057723</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>37804.54825948261</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>37526.52165948261</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>45359.48814009569</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>46798.41694009569</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>46176.72161920845</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>47083.17561920844</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>46790.78291920845</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>47168.24991920845</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>45936.65431920845</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>45909.87241920845</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>46038.15641920845</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>46702.25221920845</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>46802.25221920845</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>46573.94551920845</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>46850.69972904147</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>46839.15862904147</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>48259.49002904147</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>46838.58122904147</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>46598.02682904147</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>46598.02682904147</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>46795.29152696597</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>46795.29152696597</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>46705.04593254218</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>51269.45040795585</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>51175.73470795585</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>50538.85680795585</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>53510.1199663662</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>53171.7890663662</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>54026.11060795584</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>53296.5011495455</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>51885.7206495455</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>51497.0938495455</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>51163.8275495455</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>51619.9837495455</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>45413.0547495455</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>44297.8263495455</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1621.257400000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1616.517800000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1717.873300000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1616.628400000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1665.686100000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1613.441700000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1656.464999999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1591.051299999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1681.106299999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2480.166027534513</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>710.654027534513</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3667.309535364047</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3885.431878553619</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3848.053778553619</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3638.345778553619</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3643.284478553619</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3449.21057855362</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3428.53677855362</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3624.53677855362</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3604.24477855362</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>624.9780692821072</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5876.865725592786</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>13090.26342559279</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>14792.03592559279</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>19134.78112559279</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>20602.83084517848</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>23779.17344517848</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>34426.45164967441</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>34589.89674967441</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>34589.89674967441</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>35089.80574967441</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>40356.09445445382</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>36690.79373170425</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>37067.40353170424</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>36173.48423170424</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>36339.21514708886</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>36139.19244708886</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>36139.19244708886</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>36082.70562383304</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>36061.02490057723</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>39680.75455948261</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>39680.75455948261</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>37804.54825948261</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>37747.97695948261</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>37589.43515948261</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>45605.07634009569</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>45359.48814009569</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>46798.41694009569</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>46176.72161920845</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>47083.17561920844</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>46790.78291920845</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>47168.24991920845</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>45936.65431920845</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>45909.87241920845</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>46038.15641920845</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>46702.25221920845</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>46802.25221920845</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>46573.94551920845</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>46850.69972904147</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>46839.15862904147</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>51269.45040795585</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>51175.73470795585</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>50538.85680795585</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>53510.1199663662</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>53171.7890663662</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>54026.11060795584</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>53296.5011495455</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>51885.7206495455</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>51497.0938495455</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>51163.8275495455</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>51619.9837495455</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>44297.8263495455</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
